--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s3_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s3_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4149999618530273</v>
+        <v>0.3909997940063477</v>
       </c>
     </row>
     <row r="5">
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.10555953090578</v>
+        <v>33.10555953090577</v>
       </c>
     </row>
     <row r="5">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.23570364914818</v>
+        <v>36.23570364914815</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.31694680553866</v>
+        <v>36.56872016525497</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.72000000000298</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.44000000000415</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37500000000364</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.18000000000211</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18500000000313</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.4100000000308</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>156.3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>150.5050000000284</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>154.0550000000295</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>149.7250000000169</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.725000000004</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>42.39500000000407</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>38.17500000000291</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.26500000000306</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>112.9200000000055</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>114.9300000000039</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>123.5850000000046</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>108.7650000000031</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>115.85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>158.8950000000059</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>160.3750000000018</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>165.9450000000052</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>164.0850000000028</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>167.35</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>151.4100000000308</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.3</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.5050000000283</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>154.0550000000294</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>149.7250000000167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>158.8950000000059</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>160.3750000000018</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>165.9450000000052</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>164.0850000000028</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>167.35</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
